--- a/data/annotated.Faculty.Keys_tmp.xlsx
+++ b/data/annotated.Faculty.Keys_tmp.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\charliew\KI_core_usage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958931D-24FC-442C-B92C-97655B3FEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB7B231-D021-4258-BD3E-DB5A0387F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1020" windowWidth="27675" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="2175" windowWidth="27675" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$L$579</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$R$609</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
     <author>tc={DC699D8C-F04F-8146-81AA-1DA2E1C67FF2}</author>
   </authors>
   <commentList>
-    <comment ref="A605" authorId="0" shapeId="0" xr:uid="{DC699D8C-F04F-8146-81AA-1DA2E1C67FF2}">
+    <comment ref="A607" authorId="0" shapeId="0" xr:uid="{DC699D8C-F04F-8146-81AA-1DA2E1C67FF2}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="783">
   <si>
     <t>Faculty.Key</t>
   </si>
@@ -2410,6 +2410,12 @@
   </si>
   <si>
     <t>TPSI_Sponsor</t>
+  </si>
+  <si>
+    <t>Hallett, Penelope</t>
+  </si>
+  <si>
+    <t>Gabrieli, John</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R607"/>
+  <dimension ref="A1:R609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,7 +2855,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>781</v>
       </c>
       <c r="I2" t="s">
         <v>681</v>
@@ -2881,39 +2887,39 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>782</v>
       </c>
       <c r="I3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
         <v>681</v>
@@ -2945,7 +2951,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>681</v>
@@ -2977,7 +2983,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>681</v>
@@ -3009,7 +3015,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>681</v>
@@ -3041,7 +3047,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
         <v>681</v>
@@ -3073,7 +3079,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
         <v>681</v>
@@ -3105,7 +3111,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
         <v>681</v>
@@ -3137,7 +3143,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
         <v>681</v>
@@ -3169,7 +3175,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
         <v>681</v>
@@ -3201,7 +3207,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>681</v>
@@ -3233,7 +3239,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>729</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
         <v>681</v>
@@ -3265,7 +3271,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
         <v>681</v>
@@ -3297,7 +3303,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>729</v>
       </c>
       <c r="I16" t="s">
         <v>681</v>
@@ -3329,7 +3335,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>681</v>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
         <v>681</v>
@@ -3393,7 +3399,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
         <v>681</v>
@@ -3425,7 +3431,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
         <v>681</v>
@@ -3457,7 +3463,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
         <v>681</v>
@@ -3489,7 +3495,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>681</v>
@@ -3521,7 +3527,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
         <v>681</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>727</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
         <v>681</v>
@@ -3585,7 +3591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>730</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s">
         <v>681</v>
@@ -3617,7 +3623,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>727</v>
       </c>
       <c r="I26" t="s">
         <v>681</v>
@@ -3649,7 +3655,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>730</v>
       </c>
       <c r="I27" t="s">
         <v>681</v>
@@ -3681,7 +3687,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
         <v>681</v>
@@ -3713,7 +3719,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
         <v>681</v>
@@ -3745,7 +3751,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I30" t="s">
         <v>681</v>
@@ -3777,7 +3783,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
         <v>681</v>
@@ -3809,7 +3815,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
         <v>681</v>
@@ -3841,7 +3847,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I33" t="s">
         <v>681</v>
@@ -3873,7 +3879,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>731</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
         <v>681</v>
@@ -3905,7 +3911,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I35" t="s">
         <v>681</v>
@@ -3937,7 +3943,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>731</v>
       </c>
       <c r="I36" t="s">
         <v>681</v>
@@ -3969,7 +3975,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
         <v>681</v>
@@ -4001,7 +4007,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
         <v>681</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
         <v>681</v>
@@ -4065,7 +4071,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>732</v>
+        <v>146</v>
       </c>
       <c r="I40" t="s">
         <v>681</v>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I41" t="s">
         <v>681</v>
@@ -4129,7 +4135,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>732</v>
       </c>
       <c r="I42" t="s">
         <v>681</v>
@@ -4161,7 +4167,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I43" t="s">
         <v>681</v>
@@ -4193,7 +4199,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>733</v>
+        <v>170</v>
       </c>
       <c r="I44" t="s">
         <v>681</v>
@@ -4225,7 +4231,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
         <v>681</v>
@@ -4257,7 +4263,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>733</v>
       </c>
       <c r="I46" t="s">
         <v>681</v>
@@ -4289,7 +4295,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
         <v>681</v>
@@ -4321,7 +4327,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I48" t="s">
         <v>681</v>
@@ -4353,7 +4359,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I49" t="s">
         <v>681</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I50" t="s">
         <v>681</v>
@@ -4417,7 +4423,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I51" t="s">
         <v>681</v>
@@ -4449,7 +4455,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I52" t="s">
         <v>681</v>
@@ -4481,7 +4487,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I53" t="s">
         <v>681</v>
@@ -4513,7 +4519,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I54" t="s">
         <v>681</v>
@@ -4545,7 +4551,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I55" t="s">
         <v>681</v>
@@ -4577,7 +4583,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I56" t="s">
         <v>681</v>
@@ -4609,7 +4615,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I57" t="s">
         <v>681</v>
@@ -4641,7 +4647,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I58" t="s">
         <v>681</v>
@@ -4673,12 +4679,8 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>734</v>
-      </c>
-      <c r="B59" t="s">
-        <v>769</v>
-      </c>
-      <c r="F59" s="2"/>
+        <v>224</v>
+      </c>
       <c r="I59" t="s">
         <v>681</v>
       </c>
@@ -4709,7 +4711,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I60" t="s">
         <v>681</v>
@@ -4741,8 +4743,12 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>735</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="B61" t="s">
+        <v>769</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="I61" t="s">
         <v>681</v>
       </c>
@@ -4773,7 +4779,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I62" t="s">
         <v>681</v>
@@ -4805,7 +4811,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>239</v>
+        <v>735</v>
       </c>
       <c r="I63" t="s">
         <v>681</v>
@@ -4837,7 +4843,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I64" t="s">
         <v>681</v>
@@ -4869,10 +4875,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>736</v>
-      </c>
-      <c r="F65" t="s">
-        <v>755</v>
+        <v>239</v>
       </c>
       <c r="I65" t="s">
         <v>681</v>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I66" t="s">
         <v>681</v>
@@ -4936,7 +4939,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>736</v>
+      </c>
+      <c r="F67" t="s">
+        <v>755</v>
       </c>
       <c r="I67" t="s">
         <v>681</v>
@@ -4968,7 +4974,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I68" t="s">
         <v>681</v>
@@ -5000,7 +5006,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I69" t="s">
         <v>681</v>
@@ -5032,7 +5038,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="I70" t="s">
         <v>681</v>
@@ -5064,7 +5070,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="I71" t="s">
         <v>681</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I72" t="s">
         <v>681</v>
@@ -5128,7 +5134,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="I73" t="s">
         <v>681</v>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="I74" t="s">
         <v>681</v>
@@ -5192,7 +5198,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I75" t="s">
         <v>681</v>
@@ -5224,7 +5230,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I76" t="s">
         <v>681</v>
@@ -5256,7 +5262,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I77" t="s">
         <v>681</v>
@@ -5288,7 +5294,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>737</v>
+        <v>328</v>
       </c>
       <c r="I78" t="s">
         <v>681</v>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I79" t="s">
         <v>681</v>
@@ -5352,7 +5358,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>341</v>
+        <v>737</v>
       </c>
       <c r="I80" t="s">
         <v>681</v>
@@ -5384,7 +5390,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="I81" t="s">
         <v>681</v>
@@ -5416,7 +5422,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I82" t="s">
         <v>681</v>
@@ -5448,7 +5454,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>164</v>
       </c>
       <c r="I83" t="s">
         <v>681</v>
@@ -5480,7 +5486,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I84" t="s">
         <v>681</v>
@@ -5512,7 +5518,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I85" t="s">
         <v>681</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I86" t="s">
         <v>681</v>
@@ -5576,7 +5582,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="I87" t="s">
         <v>681</v>
@@ -5608,7 +5614,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I88" t="s">
         <v>681</v>
@@ -5640,7 +5646,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>738</v>
+        <v>374</v>
       </c>
       <c r="I89" t="s">
         <v>681</v>
@@ -5672,7 +5678,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I90" t="s">
         <v>681</v>
@@ -5704,7 +5710,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I91" t="s">
         <v>681</v>
@@ -5736,7 +5742,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="I92" t="s">
         <v>681</v>
@@ -5768,7 +5774,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>739</v>
       </c>
       <c r="I93" t="s">
         <v>681</v>
@@ -5800,7 +5806,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>740</v>
+        <v>389</v>
       </c>
       <c r="I94" t="s">
         <v>681</v>
@@ -5832,7 +5838,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I95" t="s">
         <v>681</v>
@@ -5864,7 +5870,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>394</v>
+        <v>740</v>
       </c>
       <c r="I96" t="s">
         <v>681</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I97" t="s">
         <v>681</v>
@@ -5928,7 +5934,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>741</v>
+        <v>394</v>
       </c>
       <c r="I98" t="s">
         <v>681</v>
@@ -5960,7 +5966,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I99" t="s">
         <v>681</v>
@@ -5992,7 +5998,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>404</v>
+        <v>741</v>
       </c>
       <c r="I100" t="s">
         <v>681</v>
@@ -6024,7 +6030,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="I101" t="s">
         <v>681</v>
@@ -6056,7 +6062,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="I102" t="s">
         <v>681</v>
@@ -6088,7 +6094,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I103" t="s">
         <v>681</v>
@@ -6120,7 +6126,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I104" t="s">
         <v>681</v>
@@ -6152,7 +6158,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I105" t="s">
         <v>681</v>
@@ -6184,7 +6190,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I106" t="s">
         <v>681</v>
@@ -6216,7 +6222,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>742</v>
+        <v>420</v>
       </c>
       <c r="I107" t="s">
         <v>681</v>
@@ -6248,7 +6254,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I108" t="s">
         <v>681</v>
@@ -6280,7 +6286,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>428</v>
+        <v>742</v>
       </c>
       <c r="I109" t="s">
         <v>681</v>
@@ -6312,7 +6318,7 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="I110" t="s">
         <v>681</v>
@@ -6344,7 +6350,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="I111" t="s">
         <v>681</v>
@@ -6376,7 +6382,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>744</v>
+        <v>433</v>
       </c>
       <c r="I112" t="s">
         <v>681</v>
@@ -6408,7 +6414,7 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I113" t="s">
         <v>681</v>
@@ -6440,7 +6446,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>453</v>
+        <v>744</v>
       </c>
       <c r="I114" t="s">
         <v>681</v>
@@ -6472,7 +6478,7 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I115" t="s">
         <v>681</v>
@@ -6504,7 +6510,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I116" t="s">
         <v>681</v>
@@ -6536,7 +6542,7 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="I117" t="s">
         <v>681</v>
@@ -6568,7 +6574,7 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>745</v>
+        <v>457</v>
       </c>
       <c r="I118" t="s">
         <v>681</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I119" t="s">
         <v>681</v>
@@ -6632,7 +6638,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>463</v>
+        <v>745</v>
       </c>
       <c r="I120" t="s">
         <v>681</v>
@@ -6664,7 +6670,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I121" t="s">
         <v>681</v>
@@ -6696,7 +6702,7 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I122" t="s">
         <v>681</v>
@@ -6728,7 +6734,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I123" t="s">
         <v>681</v>
@@ -6760,7 +6766,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I124" t="s">
         <v>681</v>
@@ -6792,7 +6798,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I125" t="s">
         <v>681</v>
@@ -6824,7 +6830,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I126" t="s">
         <v>681</v>
@@ -6856,7 +6862,7 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="I127" t="s">
         <v>681</v>
@@ -6888,7 +6894,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I128" t="s">
         <v>681</v>
@@ -6920,7 +6926,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="I129" t="s">
         <v>681</v>
@@ -6952,7 +6958,7 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I130" t="s">
         <v>681</v>
@@ -6984,7 +6990,7 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I131" t="s">
         <v>681</v>
@@ -7016,7 +7022,7 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I132" t="s">
         <v>681</v>
@@ -7048,7 +7054,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I133" t="s">
         <v>681</v>
@@ -7080,7 +7086,7 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I134" t="s">
         <v>681</v>
@@ -7112,7 +7118,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="I135" t="s">
         <v>681</v>
@@ -7144,7 +7150,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="I136" t="s">
         <v>681</v>
@@ -7176,7 +7182,7 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="I137" t="s">
         <v>681</v>
@@ -7208,7 +7214,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I138" t="s">
         <v>681</v>
@@ -7240,7 +7246,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I139" t="s">
         <v>681</v>
@@ -7272,7 +7278,7 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>746</v>
+        <v>519</v>
       </c>
       <c r="I140" t="s">
         <v>681</v>
@@ -7304,7 +7310,7 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I141" t="s">
         <v>681</v>
@@ -7336,7 +7342,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I142" t="s">
         <v>681</v>
@@ -7368,7 +7374,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I143" t="s">
         <v>681</v>
@@ -7400,7 +7406,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>533</v>
+        <v>747</v>
       </c>
       <c r="I144" t="s">
         <v>681</v>
@@ -7432,7 +7438,7 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I145" t="s">
         <v>681</v>
@@ -7464,7 +7470,7 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I146" t="s">
         <v>681</v>
@@ -7496,167 +7502,167 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>534</v>
+      </c>
+      <c r="I147" t="s">
+        <v>681</v>
+      </c>
+      <c r="J147" t="s">
+        <v>681</v>
+      </c>
+      <c r="K147" t="s">
+        <v>681</v>
+      </c>
+      <c r="L147" t="s">
+        <v>681</v>
+      </c>
+      <c r="M147" t="s">
+        <v>681</v>
+      </c>
+      <c r="N147" t="s">
+        <v>681</v>
+      </c>
+      <c r="O147" t="s">
+        <v>681</v>
+      </c>
+      <c r="P147" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>537</v>
+      </c>
+      <c r="I148" t="s">
+        <v>681</v>
+      </c>
+      <c r="J148" t="s">
+        <v>681</v>
+      </c>
+      <c r="K148" t="s">
+        <v>681</v>
+      </c>
+      <c r="L148" t="s">
+        <v>681</v>
+      </c>
+      <c r="M148" t="s">
+        <v>681</v>
+      </c>
+      <c r="N148" t="s">
+        <v>681</v>
+      </c>
+      <c r="O148" t="s">
+        <v>681</v>
+      </c>
+      <c r="P148" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>554</v>
       </c>
-      <c r="I147" t="s">
-        <v>681</v>
-      </c>
-      <c r="J147" t="s">
-        <v>681</v>
-      </c>
-      <c r="K147" t="s">
-        <v>681</v>
-      </c>
-      <c r="L147" t="s">
-        <v>681</v>
-      </c>
-      <c r="M147" t="s">
-        <v>681</v>
-      </c>
-      <c r="N147" t="s">
-        <v>681</v>
-      </c>
-      <c r="O147" t="s">
-        <v>681</v>
-      </c>
-      <c r="P147" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="I149" t="s">
+        <v>681</v>
+      </c>
+      <c r="J149" t="s">
+        <v>681</v>
+      </c>
+      <c r="K149" t="s">
+        <v>681</v>
+      </c>
+      <c r="L149" t="s">
+        <v>681</v>
+      </c>
+      <c r="M149" t="s">
+        <v>681</v>
+      </c>
+      <c r="N149" t="s">
+        <v>681</v>
+      </c>
+      <c r="O149" t="s">
+        <v>681</v>
+      </c>
+      <c r="P149" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="I148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="L148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="P148" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q148" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="I150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="L149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="O149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="P149" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q149" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>568</v>
-      </c>
-      <c r="I150" t="s">
-        <v>681</v>
-      </c>
-      <c r="J150" t="s">
-        <v>681</v>
-      </c>
-      <c r="K150" t="s">
-        <v>681</v>
-      </c>
-      <c r="L150" t="s">
-        <v>681</v>
-      </c>
-      <c r="M150" t="s">
-        <v>681</v>
-      </c>
-      <c r="N150" t="s">
-        <v>681</v>
-      </c>
-      <c r="O150" t="s">
-        <v>681</v>
-      </c>
-      <c r="P150" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>569</v>
-      </c>
-      <c r="I151" t="s">
-        <v>681</v>
-      </c>
-      <c r="J151" t="s">
-        <v>681</v>
-      </c>
-      <c r="K151" t="s">
-        <v>681</v>
-      </c>
-      <c r="L151" t="s">
-        <v>681</v>
-      </c>
-      <c r="M151" t="s">
-        <v>681</v>
-      </c>
-      <c r="N151" t="s">
-        <v>681</v>
-      </c>
-      <c r="O151" t="s">
-        <v>681</v>
-      </c>
-      <c r="P151" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q151" t="s">
+      <c r="I151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q151" s="2" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I152" t="s">
         <v>681</v>
@@ -7688,7 +7694,7 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I153" t="s">
         <v>681</v>
@@ -7720,7 +7726,7 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I154" t="s">
         <v>681</v>
@@ -7752,7 +7758,7 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="I155" t="s">
         <v>681</v>
@@ -7784,7 +7790,7 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>749</v>
+        <v>576</v>
       </c>
       <c r="I156" t="s">
         <v>681</v>
@@ -7816,7 +7822,7 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I157" t="s">
         <v>681</v>
@@ -7848,7 +7854,7 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>593</v>
+        <v>749</v>
       </c>
       <c r="I158" t="s">
         <v>681</v>
@@ -7880,7 +7886,7 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="I159" t="s">
         <v>681</v>
@@ -7912,7 +7918,7 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>750</v>
+        <v>593</v>
       </c>
       <c r="I160" t="s">
         <v>681</v>
@@ -7944,7 +7950,7 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I161" t="s">
         <v>681</v>
@@ -7976,7 +7982,7 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="I162" t="s">
         <v>681</v>
@@ -8008,7 +8014,7 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>751</v>
+        <v>599</v>
       </c>
       <c r="I163" t="s">
         <v>681</v>
@@ -8040,7 +8046,7 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I164" t="s">
         <v>681</v>
@@ -8072,7 +8078,7 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>602</v>
+        <v>751</v>
       </c>
       <c r="I165" t="s">
         <v>681</v>
@@ -8104,7 +8110,7 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>752</v>
+        <v>601</v>
       </c>
       <c r="I166" t="s">
         <v>681</v>
@@ -8136,7 +8142,7 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="I167" t="s">
         <v>681</v>
@@ -8168,7 +8174,7 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>616</v>
+        <v>752</v>
       </c>
       <c r="I168" t="s">
         <v>681</v>
@@ -8200,7 +8206,7 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>753</v>
+        <v>610</v>
       </c>
       <c r="I169" t="s">
         <v>681</v>
@@ -8232,7 +8238,7 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I170" t="s">
         <v>681</v>
@@ -8264,7 +8270,7 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>623</v>
+        <v>753</v>
       </c>
       <c r="I171" t="s">
         <v>681</v>
@@ -8296,7 +8302,7 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="I172" t="s">
         <v>681</v>
@@ -8328,7 +8334,7 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="I173" t="s">
         <v>681</v>
@@ -8360,7 +8366,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="I174" t="s">
         <v>681</v>
@@ -8392,7 +8398,7 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="I175" t="s">
         <v>681</v>
@@ -8424,7 +8430,7 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="I176" t="s">
         <v>681</v>
@@ -8456,7 +8462,7 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I177" t="s">
         <v>681</v>
@@ -8488,7 +8494,7 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I178" t="s">
         <v>681</v>
@@ -8520,7 +8526,7 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>754</v>
+        <v>646</v>
       </c>
       <c r="I179" t="s">
         <v>681</v>
@@ -8552,7 +8558,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="I180" t="s">
         <v>681</v>
@@ -8584,7 +8590,7 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>663</v>
+        <v>754</v>
       </c>
       <c r="I181" t="s">
         <v>681</v>
@@ -8616,71 +8622,71 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>655</v>
       </c>
       <c r="I182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="O182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q182" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>663</v>
       </c>
       <c r="I183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="O183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q183" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I184" t="s">
         <v>683</v>
@@ -8712,7 +8718,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I185" t="s">
         <v>683</v>
@@ -8744,7 +8750,7 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I186" t="s">
         <v>683</v>
@@ -8776,7 +8782,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I187" t="s">
         <v>683</v>
@@ -8808,7 +8814,7 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I188" t="s">
         <v>683</v>
@@ -8840,7 +8846,7 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I189" t="s">
         <v>683</v>
@@ -8872,7 +8878,7 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I190" t="s">
         <v>683</v>
@@ -8904,7 +8910,7 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I191" t="s">
         <v>683</v>
@@ -8936,7 +8942,7 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I192" t="s">
         <v>683</v>
@@ -8968,7 +8974,7 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I193" t="s">
         <v>683</v>
@@ -9000,7 +9006,7 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I194" t="s">
         <v>683</v>
@@ -9032,7 +9038,7 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I195" t="s">
         <v>683</v>
@@ -9064,7 +9070,7 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I196" t="s">
         <v>683</v>
@@ -9096,7 +9102,7 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I197" t="s">
         <v>683</v>
@@ -9128,7 +9134,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I198" t="s">
         <v>683</v>
@@ -9160,7 +9166,7 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I199" t="s">
         <v>683</v>
@@ -9192,7 +9198,7 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I200" t="s">
         <v>683</v>
@@ -9224,7 +9230,7 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="I201" t="s">
         <v>683</v>
@@ -9256,7 +9262,7 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I202" t="s">
         <v>683</v>
@@ -9288,7 +9294,7 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I203" t="s">
         <v>683</v>
@@ -9320,7 +9326,7 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I204" t="s">
         <v>683</v>
@@ -9352,7 +9358,7 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I205" t="s">
         <v>683</v>
@@ -9384,7 +9390,7 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I206" t="s">
         <v>683</v>
@@ -9416,7 +9422,7 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I207" t="s">
         <v>683</v>
@@ -9448,7 +9454,7 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I208" t="s">
         <v>683</v>
@@ -9480,7 +9486,7 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I209" t="s">
         <v>683</v>
@@ -9512,7 +9518,7 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I210" t="s">
         <v>683</v>
@@ -9544,7 +9550,7 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I211" t="s">
         <v>683</v>
@@ -9576,7 +9582,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I212" t="s">
         <v>683</v>
@@ -9608,7 +9614,7 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I213" t="s">
         <v>683</v>
@@ -9640,7 +9646,7 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I214" t="s">
         <v>683</v>
@@ -9672,7 +9678,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I215" t="s">
         <v>683</v>
@@ -9704,7 +9710,7 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I216" t="s">
         <v>683</v>
@@ -9736,7 +9742,7 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I217" t="s">
         <v>683</v>
@@ -9768,7 +9774,7 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I218" t="s">
         <v>683</v>
@@ -9800,7 +9806,7 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I219" t="s">
         <v>683</v>
@@ -9832,7 +9838,7 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I220" t="s">
         <v>683</v>
@@ -9864,7 +9870,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="I221" t="s">
         <v>683</v>
@@ -9896,7 +9902,7 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I222" t="s">
         <v>683</v>
@@ -9928,7 +9934,7 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I223" t="s">
         <v>683</v>
@@ -9960,7 +9966,7 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I224" t="s">
         <v>683</v>
@@ -9992,7 +9998,7 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I225" t="s">
         <v>683</v>
@@ -10024,7 +10030,7 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I226" t="s">
         <v>683</v>
@@ -10056,7 +10062,7 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I227" t="s">
         <v>683</v>
@@ -10088,7 +10094,7 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I228" t="s">
         <v>683</v>
@@ -10120,7 +10126,7 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I229" t="s">
         <v>683</v>
@@ -10152,7 +10158,7 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I230" t="s">
         <v>683</v>
@@ -10184,7 +10190,7 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="I231" t="s">
         <v>683</v>
@@ -10216,7 +10222,7 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I232" t="s">
         <v>683</v>
@@ -10248,7 +10254,7 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I233" t="s">
         <v>683</v>
@@ -10280,7 +10286,7 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I234" t="s">
         <v>683</v>
@@ -10312,7 +10318,7 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="I235" t="s">
         <v>683</v>
@@ -10344,7 +10350,7 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I236" t="s">
         <v>683</v>
@@ -10376,7 +10382,7 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I237" t="s">
         <v>683</v>
@@ -10408,7 +10414,7 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="I238" t="s">
         <v>683</v>
@@ -10440,7 +10446,7 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I239" t="s">
         <v>683</v>
@@ -10472,7 +10478,7 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="I240" t="s">
         <v>683</v>
@@ -10504,7 +10510,7 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I241" t="s">
         <v>683</v>
@@ -10536,7 +10542,7 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="I242" t="s">
         <v>683</v>
@@ -10568,7 +10574,7 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="I243" t="s">
         <v>683</v>
@@ -10600,7 +10606,7 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I244" t="s">
         <v>683</v>
@@ -10632,7 +10638,7 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I245" t="s">
         <v>683</v>
@@ -10664,7 +10670,7 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I246" t="s">
         <v>683</v>
@@ -10696,7 +10702,7 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I247" t="s">
         <v>683</v>
@@ -10728,7 +10734,7 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I248" t="s">
         <v>683</v>
@@ -10760,7 +10766,7 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="I249" t="s">
         <v>683</v>
@@ -10792,7 +10798,7 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="I250" t="s">
         <v>683</v>
@@ -10824,7 +10830,7 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I251" t="s">
         <v>683</v>
@@ -10856,7 +10862,7 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I252" t="s">
         <v>683</v>
@@ -10888,7 +10894,7 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="I253" t="s">
         <v>683</v>
@@ -10920,7 +10926,7 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I254" t="s">
         <v>683</v>
@@ -10952,7 +10958,7 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I255" t="s">
         <v>683</v>
@@ -10984,7 +10990,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I256" t="s">
         <v>683</v>
@@ -11016,7 +11022,7 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I257" t="s">
         <v>683</v>
@@ -11048,7 +11054,7 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="I258" t="s">
         <v>683</v>
@@ -11080,7 +11086,7 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I259" t="s">
         <v>683</v>
@@ -11112,7 +11118,7 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I260" t="s">
         <v>683</v>
@@ -11144,7 +11150,7 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I261" t="s">
         <v>683</v>
@@ -11176,7 +11182,7 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="I262" t="s">
         <v>683</v>
@@ -11208,7 +11214,7 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="I263" t="s">
         <v>683</v>
@@ -11240,7 +11246,7 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I264" t="s">
         <v>683</v>
@@ -11272,7 +11278,7 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I265" t="s">
         <v>683</v>
@@ -11304,7 +11310,7 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I266" t="s">
         <v>683</v>
@@ -11336,7 +11342,7 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="I267" t="s">
         <v>683</v>
@@ -11368,7 +11374,7 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I268" t="s">
         <v>683</v>
@@ -11400,7 +11406,7 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I269" t="s">
         <v>683</v>
@@ -11432,7 +11438,7 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I270" t="s">
         <v>683</v>
@@ -11464,7 +11470,7 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="I271" t="s">
         <v>683</v>
@@ -11496,7 +11502,7 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I272" t="s">
         <v>683</v>
@@ -11528,7 +11534,7 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="I273" t="s">
         <v>683</v>
@@ -11560,7 +11566,7 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="I274" t="s">
         <v>683</v>
@@ -11592,7 +11598,7 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I275" t="s">
         <v>683</v>
@@ -11624,7 +11630,7 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I276" t="s">
         <v>683</v>
@@ -11656,7 +11662,7 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I277" t="s">
         <v>683</v>
@@ -11688,7 +11694,7 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I278" t="s">
         <v>683</v>
@@ -11720,7 +11726,7 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I279" t="s">
         <v>683</v>
@@ -11752,7 +11758,7 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I280" t="s">
         <v>683</v>
@@ -11784,7 +11790,7 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="I281" t="s">
         <v>683</v>
@@ -11816,7 +11822,7 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="I282" t="s">
         <v>683</v>
@@ -11848,7 +11854,7 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I283" t="s">
         <v>683</v>
@@ -11880,7 +11886,7 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I284" t="s">
         <v>683</v>
@@ -11912,7 +11918,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="I285" t="s">
         <v>683</v>
@@ -11944,7 +11950,7 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="I286" t="s">
         <v>683</v>
@@ -11976,7 +11982,7 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>743</v>
+        <v>475</v>
       </c>
       <c r="I287" t="s">
         <v>683</v>
@@ -12008,7 +12014,7 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I288" t="s">
         <v>683</v>
@@ -12040,7 +12046,7 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>495</v>
+        <v>743</v>
       </c>
       <c r="I289" t="s">
         <v>683</v>
@@ -12072,7 +12078,7 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="I290" t="s">
         <v>683</v>
@@ -12104,7 +12110,7 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="I291" t="s">
         <v>683</v>
@@ -12136,7 +12142,7 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I292" t="s">
         <v>683</v>
@@ -12168,7 +12174,7 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I293" t="s">
         <v>683</v>
@@ -12200,7 +12206,7 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="I294" t="s">
         <v>683</v>
@@ -12232,7 +12238,7 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="I295" t="s">
         <v>683</v>
@@ -12264,7 +12270,7 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I296" t="s">
         <v>683</v>
@@ -12296,7 +12302,7 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I297" t="s">
         <v>683</v>
@@ -12328,7 +12334,7 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I298" t="s">
         <v>683</v>
@@ -12360,7 +12366,7 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I299" t="s">
         <v>683</v>
@@ -12392,7 +12398,7 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="I300" t="s">
         <v>683</v>
@@ -12424,7 +12430,7 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I301" t="s">
         <v>683</v>
@@ -12456,7 +12462,7 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I302" t="s">
         <v>683</v>
@@ -12488,7 +12494,7 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I303" t="s">
         <v>683</v>
@@ -12520,7 +12526,7 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I304" t="s">
         <v>683</v>
@@ -12552,7 +12558,7 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I305" t="s">
         <v>683</v>
@@ -12584,7 +12590,7 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I306" t="s">
         <v>683</v>
@@ -12616,7 +12622,7 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="I307" t="s">
         <v>683</v>
@@ -12648,7 +12654,7 @@
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="I308" t="s">
         <v>683</v>
@@ -12680,7 +12686,7 @@
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="I309" t="s">
         <v>683</v>
@@ -12710,44 +12716,41 @@
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="I310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="J310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="K310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="L310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="M310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="N310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="O310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="P310" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q310" s="2" t="s">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>575</v>
+      </c>
+      <c r="I310" t="s">
+        <v>683</v>
+      </c>
+      <c r="J310" t="s">
+        <v>683</v>
+      </c>
+      <c r="K310" t="s">
+        <v>683</v>
+      </c>
+      <c r="L310" t="s">
+        <v>683</v>
+      </c>
+      <c r="M310" t="s">
+        <v>683</v>
+      </c>
+      <c r="N310" t="s">
+        <v>683</v>
+      </c>
+      <c r="O310" t="s">
+        <v>683</v>
+      </c>
+      <c r="P310" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q310" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I311" t="s">
         <v>683</v>
@@ -12777,41 +12780,44 @@
         <v>683</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>585</v>
-      </c>
-      <c r="I312" t="s">
-        <v>683</v>
-      </c>
-      <c r="J312" t="s">
-        <v>683</v>
-      </c>
-      <c r="K312" t="s">
-        <v>683</v>
-      </c>
-      <c r="L312" t="s">
-        <v>683</v>
-      </c>
-      <c r="M312" t="s">
-        <v>683</v>
-      </c>
-      <c r="N312" t="s">
-        <v>683</v>
-      </c>
-      <c r="O312" t="s">
-        <v>683</v>
-      </c>
-      <c r="P312" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q312" t="s">
+    <row r="312" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="K312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="L312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="M312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="N312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="O312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="P312" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q312" s="2" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I313" t="s">
         <v>683</v>
@@ -12843,7 +12849,7 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I314" t="s">
         <v>683</v>
@@ -12875,7 +12881,7 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I315" t="s">
         <v>683</v>
@@ -12907,7 +12913,7 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I316" t="s">
         <v>683</v>
@@ -12939,7 +12945,7 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I317" t="s">
         <v>683</v>
@@ -12971,7 +12977,7 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="I318" t="s">
         <v>683</v>
@@ -13003,7 +13009,7 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="I319" t="s">
         <v>683</v>
@@ -13035,7 +13041,7 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="I320" t="s">
         <v>683</v>
@@ -13067,7 +13073,7 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="I321" t="s">
         <v>683</v>
@@ -13099,7 +13105,7 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="I322" t="s">
         <v>683</v>
@@ -13131,7 +13137,7 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="I323" t="s">
         <v>683</v>
@@ -13163,7 +13169,7 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="I324" t="s">
         <v>683</v>
@@ -13195,7 +13201,7 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="I325" t="s">
         <v>683</v>
@@ -13227,89 +13233,71 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>14</v>
+        <v>658</v>
       </c>
       <c r="I326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="J326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="K326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="L326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="M326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="N326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="O326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="P326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="Q326" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>19</v>
+        <v>660</v>
       </c>
       <c r="I327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="J327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="K327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="L327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="M327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="N327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="O327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="P327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="Q327" t="s">
-        <v>20</v>
+        <v>683</v>
       </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>56</v>
-      </c>
-      <c r="C328" t="s">
-        <v>57</v>
-      </c>
-      <c r="D328" t="s">
-        <v>58</v>
-      </c>
-      <c r="E328">
-        <v>1</v>
-      </c>
-      <c r="F328" t="s">
-        <v>59</v>
-      </c>
-      <c r="G328" t="s">
-        <v>60</v>
-      </c>
-      <c r="H328" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I328" t="s">
         <v>20</v>
@@ -13341,7 +13329,7 @@
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I329" t="s">
         <v>20</v>
@@ -13373,7 +13361,25 @@
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="C330" t="s">
+        <v>57</v>
+      </c>
+      <c r="D330" t="s">
+        <v>58</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330" t="s">
+        <v>59</v>
+      </c>
+      <c r="G330" t="s">
+        <v>60</v>
+      </c>
+      <c r="H330" t="s">
+        <v>61</v>
       </c>
       <c r="I330" t="s">
         <v>20</v>
@@ -13405,7 +13411,7 @@
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I331" t="s">
         <v>20</v>
@@ -13435,9 +13441,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="I332" t="s">
         <v>20</v>
@@ -13469,7 +13475,7 @@
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="I333" t="s">
         <v>20</v>
@@ -13499,9 +13505,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="I334" t="s">
         <v>20</v>
@@ -13533,25 +13539,7 @@
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>178</v>
-      </c>
-      <c r="C335" t="s">
-        <v>179</v>
-      </c>
-      <c r="D335" t="s">
-        <v>58</v>
-      </c>
-      <c r="E335">
-        <v>3</v>
-      </c>
-      <c r="F335" t="s">
-        <v>180</v>
-      </c>
-      <c r="G335" t="s">
-        <v>26</v>
-      </c>
-      <c r="H335" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="I335" t="s">
         <v>20</v>
@@ -13583,7 +13571,7 @@
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="I336" t="s">
         <v>20</v>
@@ -13615,7 +13603,25 @@
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>234</v>
+        <v>178</v>
+      </c>
+      <c r="C337" t="s">
+        <v>179</v>
+      </c>
+      <c r="D337" t="s">
+        <v>58</v>
+      </c>
+      <c r="E337">
+        <v>3</v>
+      </c>
+      <c r="F337" t="s">
+        <v>180</v>
+      </c>
+      <c r="G337" t="s">
+        <v>26</v>
+      </c>
+      <c r="H337" t="s">
+        <v>61</v>
       </c>
       <c r="I337" t="s">
         <v>20</v>
@@ -13647,7 +13653,7 @@
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I338" t="s">
         <v>20</v>
@@ -13679,7 +13685,7 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I339" t="s">
         <v>20</v>
@@ -13711,22 +13717,7 @@
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>276</v>
-      </c>
-      <c r="C340" t="s">
-        <v>277</v>
-      </c>
-      <c r="D340" t="s">
-        <v>58</v>
-      </c>
-      <c r="E340">
-        <v>2</v>
-      </c>
-      <c r="F340" t="s">
-        <v>59</v>
-      </c>
-      <c r="G340" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="I340" t="s">
         <v>20</v>
@@ -13758,25 +13749,7 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>279</v>
-      </c>
-      <c r="C341" t="s">
-        <v>280</v>
-      </c>
-      <c r="D341" t="s">
-        <v>24</v>
-      </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-      <c r="F341" t="s">
-        <v>59</v>
-      </c>
-      <c r="G341" t="s">
-        <v>60</v>
-      </c>
-      <c r="H341" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="I341" t="s">
         <v>20</v>
@@ -13808,13 +13781,13 @@
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C342" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D342" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E342">
         <v>2</v>
@@ -13825,9 +13798,6 @@
       <c r="G342" t="s">
         <v>60</v>
       </c>
-      <c r="H342" t="s">
-        <v>61</v>
-      </c>
       <c r="I342" t="s">
         <v>20</v>
       </c>
@@ -13858,22 +13828,22 @@
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C343" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D343" t="s">
         <v>24</v>
       </c>
       <c r="E343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F343" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G343" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H343" t="s">
         <v>61</v>
@@ -13908,7 +13878,25 @@
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>298</v>
+        <v>287</v>
+      </c>
+      <c r="C344" t="s">
+        <v>288</v>
+      </c>
+      <c r="D344" t="s">
+        <v>24</v>
+      </c>
+      <c r="E344">
+        <v>2</v>
+      </c>
+      <c r="F344" t="s">
+        <v>59</v>
+      </c>
+      <c r="G344" t="s">
+        <v>60</v>
+      </c>
+      <c r="H344" t="s">
+        <v>61</v>
       </c>
       <c r="I344" t="s">
         <v>20</v>
@@ -13940,22 +13928,22 @@
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C345" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D345" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F345" t="s">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="G345" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H345" t="s">
         <v>61</v>
@@ -13990,7 +13978,7 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I346" t="s">
         <v>20</v>
@@ -14022,7 +14010,25 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>338</v>
+        <v>299</v>
+      </c>
+      <c r="C347" t="s">
+        <v>300</v>
+      </c>
+      <c r="D347" t="s">
+        <v>58</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347" t="s">
+        <v>301</v>
+      </c>
+      <c r="G347" t="s">
+        <v>60</v>
+      </c>
+      <c r="H347" t="s">
+        <v>61</v>
       </c>
       <c r="I347" t="s">
         <v>20</v>
@@ -14054,25 +14060,7 @@
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>362</v>
-      </c>
-      <c r="C348" t="s">
-        <v>363</v>
-      </c>
-      <c r="D348" t="s">
-        <v>24</v>
-      </c>
-      <c r="E348">
-        <v>2</v>
-      </c>
-      <c r="F348" t="s">
-        <v>59</v>
-      </c>
-      <c r="G348" t="s">
-        <v>60</v>
-      </c>
-      <c r="H348" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="I348" t="s">
         <v>20</v>
@@ -14104,7 +14092,7 @@
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="I349" t="s">
         <v>20</v>
@@ -14136,7 +14124,25 @@
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>373</v>
+        <v>362</v>
+      </c>
+      <c r="C350" t="s">
+        <v>363</v>
+      </c>
+      <c r="D350" t="s">
+        <v>24</v>
+      </c>
+      <c r="E350">
+        <v>2</v>
+      </c>
+      <c r="F350" t="s">
+        <v>59</v>
+      </c>
+      <c r="G350" t="s">
+        <v>60</v>
+      </c>
+      <c r="H350" t="s">
+        <v>61</v>
       </c>
       <c r="I350" t="s">
         <v>20</v>
@@ -14168,7 +14174,7 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="I351" t="s">
         <v>20</v>
@@ -14200,7 +14206,7 @@
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="I352" t="s">
         <v>20</v>
@@ -14232,7 +14238,7 @@
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I353" t="s">
         <v>20</v>
@@ -14264,7 +14270,7 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="I354" t="s">
         <v>20</v>
@@ -14296,7 +14302,7 @@
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="I355" t="s">
         <v>20</v>
@@ -14328,7 +14334,7 @@
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="I356" t="s">
         <v>20</v>
@@ -14360,7 +14366,7 @@
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="I357" t="s">
         <v>20</v>
@@ -14392,7 +14398,7 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>497</v>
+        <v>445</v>
       </c>
       <c r="I358" t="s">
         <v>20</v>
@@ -14424,7 +14430,7 @@
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="I359" t="s">
         <v>20</v>
@@ -14456,25 +14462,7 @@
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>506</v>
-      </c>
-      <c r="C360" t="s">
-        <v>507</v>
-      </c>
-      <c r="D360" t="s">
-        <v>24</v>
-      </c>
-      <c r="E360">
-        <v>3</v>
-      </c>
-      <c r="F360" t="s">
-        <v>55</v>
-      </c>
-      <c r="G360" t="s">
-        <v>26</v>
-      </c>
-      <c r="H360" t="s">
-        <v>61</v>
+        <v>497</v>
       </c>
       <c r="I360" t="s">
         <v>20</v>
@@ -14506,7 +14494,7 @@
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>561</v>
+        <v>502</v>
       </c>
       <c r="I361" t="s">
         <v>20</v>
@@ -14538,7 +14526,25 @@
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>579</v>
+        <v>506</v>
+      </c>
+      <c r="C362" t="s">
+        <v>507</v>
+      </c>
+      <c r="D362" t="s">
+        <v>24</v>
+      </c>
+      <c r="E362">
+        <v>3</v>
+      </c>
+      <c r="F362" t="s">
+        <v>55</v>
+      </c>
+      <c r="G362" t="s">
+        <v>26</v>
+      </c>
+      <c r="H362" t="s">
+        <v>61</v>
       </c>
       <c r="I362" t="s">
         <v>20</v>
@@ -14570,7 +14576,7 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
       <c r="I363" t="s">
         <v>20</v>
@@ -14602,7 +14608,7 @@
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="I364" t="s">
         <v>20</v>
@@ -14634,7 +14640,7 @@
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="I365" t="s">
         <v>20</v>
@@ -14666,7 +14672,7 @@
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="I366" t="s">
         <v>20</v>
@@ -14698,7 +14704,7 @@
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I367" t="s">
         <v>20</v>
@@ -14730,113 +14736,83 @@
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>22</v>
-      </c>
-      <c r="C368" t="s">
-        <v>23</v>
-      </c>
-      <c r="D368" t="s">
-        <v>24</v>
-      </c>
-      <c r="E368">
-        <v>3</v>
-      </c>
-      <c r="F368" t="s">
-        <v>25</v>
-      </c>
-      <c r="G368" t="s">
-        <v>26</v>
+        <v>661</v>
       </c>
       <c r="I368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q368" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>672</v>
-      </c>
-      <c r="C369" t="s">
-        <v>673</v>
-      </c>
-      <c r="D369" t="s">
-        <v>24</v>
-      </c>
-      <c r="E369">
-        <v>2</v>
-      </c>
-      <c r="F369" t="s">
-        <v>55</v>
-      </c>
-      <c r="G369" t="s">
-        <v>26</v>
+        <v>665</v>
       </c>
       <c r="I369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q369" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>674</v>
+        <v>22</v>
       </c>
       <c r="C370" t="s">
-        <v>675</v>
+        <v>23</v>
       </c>
       <c r="D370" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E370">
         <v>3</v>
       </c>
       <c r="F370" t="s">
-        <v>676</v>
+        <v>25</v>
       </c>
       <c r="G370" t="s">
         <v>26</v>
@@ -14871,16 +14847,16 @@
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>53</v>
+        <v>672</v>
       </c>
       <c r="C371" t="s">
-        <v>54</v>
+        <v>673</v>
       </c>
       <c r="D371" t="s">
         <v>24</v>
       </c>
       <c r="E371">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F371" t="s">
         <v>55</v>
@@ -14918,19 +14894,19 @@
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>65</v>
+        <v>674</v>
       </c>
       <c r="C372" t="s">
-        <v>66</v>
+        <v>675</v>
       </c>
       <c r="D372" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E372">
         <v>3</v>
       </c>
       <c r="F372" t="s">
-        <v>67</v>
+        <v>676</v>
       </c>
       <c r="G372" t="s">
         <v>26</v>
@@ -14965,16 +14941,16 @@
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C373" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D373" t="s">
         <v>24</v>
       </c>
       <c r="E373">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F373" t="s">
         <v>55</v>
@@ -15012,19 +14988,19 @@
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C374" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D374" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E374">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F374" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G374" t="s">
         <v>26</v>
@@ -15059,16 +15035,16 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C375" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D375" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F375" t="s">
         <v>55</v>
@@ -15106,10 +15082,10 @@
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C376" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D376" t="s">
         <v>58</v>
@@ -15118,10 +15094,10 @@
         <v>1</v>
       </c>
       <c r="F376" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G376" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I376" t="s">
         <v>27</v>
@@ -15153,10 +15129,10 @@
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C377" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D377" t="s">
         <v>58</v>
@@ -15165,10 +15141,10 @@
         <v>1</v>
       </c>
       <c r="F377" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G377" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I377" t="s">
         <v>27</v>
@@ -15200,10 +15176,10 @@
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C378" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D378" t="s">
         <v>58</v>
@@ -15247,10 +15223,10 @@
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C379" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D379" t="s">
         <v>58</v>
@@ -15294,16 +15270,16 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C380" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D380" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F380" t="s">
         <v>59</v>
@@ -15339,71 +15315,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E381" s="2">
-        <v>2</v>
-      </c>
-      <c r="F381" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="G381" s="2" t="s">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>106</v>
+      </c>
+      <c r="C381" t="s">
+        <v>107</v>
+      </c>
+      <c r="D381" t="s">
+        <v>58</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381" t="s">
+        <v>59</v>
+      </c>
+      <c r="G381" t="s">
         <v>60</v>
       </c>
-      <c r="I381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P381" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q381" s="2" t="s">
+      <c r="I381" t="s">
+        <v>27</v>
+      </c>
+      <c r="J381" t="s">
+        <v>27</v>
+      </c>
+      <c r="K381" t="s">
+        <v>27</v>
+      </c>
+      <c r="L381" t="s">
+        <v>27</v>
+      </c>
+      <c r="M381" t="s">
+        <v>27</v>
+      </c>
+      <c r="N381" t="s">
+        <v>27</v>
+      </c>
+      <c r="O381" t="s">
+        <v>27</v>
+      </c>
+      <c r="P381" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q381" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C382" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D382" t="s">
         <v>24</v>
       </c>
       <c r="E382">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F382" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G382" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I382" t="s">
         <v>27</v>
@@ -15433,68 +15409,68 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>132</v>
-      </c>
-      <c r="C383" t="s">
-        <v>133</v>
-      </c>
-      <c r="D383" t="s">
-        <v>58</v>
-      </c>
-      <c r="E383">
-        <v>3</v>
-      </c>
-      <c r="F383" t="s">
-        <v>55</v>
-      </c>
-      <c r="G383" t="s">
-        <v>26</v>
-      </c>
-      <c r="I383" t="s">
-        <v>27</v>
-      </c>
-      <c r="J383" t="s">
-        <v>27</v>
-      </c>
-      <c r="K383" t="s">
-        <v>27</v>
-      </c>
-      <c r="L383" t="s">
-        <v>27</v>
-      </c>
-      <c r="M383" t="s">
-        <v>27</v>
-      </c>
-      <c r="N383" t="s">
-        <v>27</v>
-      </c>
-      <c r="O383" t="s">
-        <v>27</v>
-      </c>
-      <c r="P383" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q383" t="s">
+    <row r="383" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E383" s="2">
+        <v>2</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P383" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q383" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C384" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D384" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E384">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F384" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G384" t="s">
         <v>26</v>
@@ -15529,10 +15505,10 @@
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C385" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D385" t="s">
         <v>58</v>
@@ -15541,7 +15517,7 @@
         <v>3</v>
       </c>
       <c r="F385" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G385" t="s">
         <v>26</v>
@@ -15576,16 +15552,16 @@
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="C386" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="D386" t="s">
         <v>58</v>
       </c>
       <c r="E386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F386" t="s">
         <v>25</v>
@@ -15623,10 +15599,10 @@
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="C387" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="D387" t="s">
         <v>58</v>
@@ -15635,7 +15611,7 @@
         <v>3</v>
       </c>
       <c r="F387" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G387" t="s">
         <v>26</v>
@@ -15670,16 +15646,16 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C388" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="D388" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E388">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F388" t="s">
         <v>25</v>
@@ -15717,16 +15693,16 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C389" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D389" t="s">
         <v>58</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F389" t="s">
         <v>55</v>
@@ -15764,10 +15740,10 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C390" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D390" t="s">
         <v>24</v>
@@ -15776,10 +15752,10 @@
         <v>3</v>
       </c>
       <c r="F390" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G390" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I390" t="s">
         <v>27</v>
@@ -15811,22 +15787,22 @@
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C391" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D391" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E391">
         <v>1</v>
       </c>
       <c r="F391" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G391" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I391" t="s">
         <v>27</v>
@@ -15858,16 +15834,16 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C392" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D392" t="s">
         <v>24</v>
       </c>
       <c r="E392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F392" t="s">
         <v>59</v>
@@ -15905,22 +15881,22 @@
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="C393" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="D393" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E393">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F393" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="G393" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="I393" t="s">
         <v>27</v>
@@ -15952,19 +15928,19 @@
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>666</v>
+        <v>294</v>
       </c>
       <c r="C394" t="s">
-        <v>667</v>
+        <v>295</v>
       </c>
       <c r="D394" t="s">
         <v>24</v>
       </c>
       <c r="E394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F394" t="s">
-        <v>668</v>
+        <v>59</v>
       </c>
       <c r="G394" t="s">
         <v>60</v>
@@ -15999,22 +15975,22 @@
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C395" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D395" t="s">
         <v>58</v>
       </c>
       <c r="E395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F395" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G395" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="I395" t="s">
         <v>27</v>
@@ -16046,19 +16022,19 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>325</v>
+        <v>666</v>
       </c>
       <c r="C396" t="s">
-        <v>326</v>
+        <v>667</v>
       </c>
       <c r="D396" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E396">
         <v>1</v>
       </c>
       <c r="F396" t="s">
-        <v>59</v>
+        <v>668</v>
       </c>
       <c r="G396" t="s">
         <v>60</v>
@@ -16093,10 +16069,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C397" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D397" t="s">
         <v>58</v>
@@ -16105,10 +16081,10 @@
         <v>2</v>
       </c>
       <c r="F397" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G397" t="s">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="I397" t="s">
         <v>27</v>
@@ -16140,16 +16116,16 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C398" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D398" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E398">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F398" t="s">
         <v>59</v>
@@ -16187,22 +16163,22 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C399" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D399" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E399">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F399" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="G399" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="I399" t="s">
         <v>27</v>
@@ -16234,19 +16210,19 @@
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>669</v>
+        <v>335</v>
       </c>
       <c r="C400" t="s">
-        <v>670</v>
+        <v>336</v>
       </c>
       <c r="D400" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F400" t="s">
-        <v>671</v>
+        <v>59</v>
       </c>
       <c r="G400" t="s">
         <v>60</v>
@@ -16281,10 +16257,10 @@
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C401" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D401" t="s">
         <v>24</v>
@@ -16328,22 +16304,22 @@
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>357</v>
+        <v>669</v>
       </c>
       <c r="C402" t="s">
-        <v>358</v>
+        <v>670</v>
       </c>
       <c r="D402" t="s">
         <v>58</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F402" t="s">
-        <v>55</v>
+        <v>671</v>
       </c>
       <c r="G402" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I402" t="s">
         <v>27</v>
@@ -16375,22 +16351,22 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C403" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D403" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E403">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F403" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G403" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I403" t="s">
         <v>27</v>
@@ -16422,19 +16398,19 @@
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C404" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="D404" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E404">
         <v>2</v>
       </c>
       <c r="F404" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G404" t="s">
         <v>26</v>
@@ -16469,22 +16445,22 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C405" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D405" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F405" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G405" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I405" t="s">
         <v>27</v>
@@ -16516,22 +16492,22 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="C406" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="D406" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F406" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G406" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I406" t="s">
         <v>27</v>
@@ -16563,22 +16539,22 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="C407" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="D407" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E407">
         <v>3</v>
       </c>
       <c r="F407" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="G407" t="s">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="I407" t="s">
         <v>27</v>
@@ -16610,22 +16586,22 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="C408" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="D408" t="s">
         <v>58</v>
       </c>
       <c r="E408">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F408" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="G408" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="I408" t="s">
         <v>27</v>
@@ -16657,22 +16633,22 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="C409" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="D409" t="s">
         <v>58</v>
       </c>
       <c r="E409">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F409" t="s">
-        <v>491</v>
+        <v>313</v>
       </c>
       <c r="G409" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="I409" t="s">
         <v>27</v>
@@ -16704,22 +16680,22 @@
     </row>
     <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="C410" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="D410" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E410">
         <v>3</v>
       </c>
       <c r="F410" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="G410" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="I410" t="s">
         <v>27</v>
@@ -16751,22 +16727,22 @@
     </row>
     <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="C411" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="D411" t="s">
         <v>58</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F411" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="G411" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="I411" t="s">
         <v>27</v>
@@ -16798,16 +16774,16 @@
     </row>
     <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="C412" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="D412" t="s">
         <v>24</v>
       </c>
       <c r="E412">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F412" t="s">
         <v>59</v>
@@ -16845,10 +16821,10 @@
     </row>
     <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C413" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D413" t="s">
         <v>58</v>
@@ -16857,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="F413" t="s">
-        <v>313</v>
+        <v>529</v>
       </c>
       <c r="G413" t="s">
         <v>314</v>
@@ -16892,10 +16868,10 @@
     </row>
     <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="C414" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D414" t="s">
         <v>24</v>
@@ -16939,22 +16915,22 @@
     </row>
     <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C415" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="D415" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F415" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="G415" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="I415" t="s">
         <v>27</v>
@@ -16986,22 +16962,22 @@
     </row>
     <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C416" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D416" t="s">
         <v>24</v>
       </c>
       <c r="E416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F416" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G416" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I416" t="s">
         <v>27</v>
@@ -17033,22 +17009,22 @@
     </row>
     <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C417" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D417" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F417" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G417" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I417" t="s">
         <v>27</v>
@@ -17080,19 +17056,19 @@
     </row>
     <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="C418" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="D418" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F418" t="s">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="G418" t="s">
         <v>26</v>
@@ -17127,22 +17103,22 @@
     </row>
     <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>426</v>
+        <v>562</v>
       </c>
       <c r="C419" t="s">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="D419" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E419">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F419" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G419" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I419" t="s">
         <v>27</v>
@@ -17174,22 +17150,22 @@
     </row>
     <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="C420" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="D420" t="s">
         <v>58</v>
       </c>
       <c r="E420">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F420" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="G420" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I420" t="s">
         <v>27</v>
@@ -17221,13 +17197,13 @@
     </row>
     <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>612</v>
+        <v>426</v>
       </c>
       <c r="C421" t="s">
-        <v>613</v>
+        <v>427</v>
       </c>
       <c r="D421" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E421">
         <v>1</v>
@@ -17268,16 +17244,16 @@
     </row>
     <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C422" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="D422" t="s">
         <v>58</v>
       </c>
       <c r="E422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F422" t="s">
         <v>59</v>
@@ -17315,22 +17291,22 @@
     </row>
     <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C423" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="D423" t="s">
         <v>58</v>
       </c>
       <c r="E423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F423" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G423" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I423" t="s">
         <v>27</v>
@@ -17362,16 +17338,16 @@
     </row>
     <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C424" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D424" t="s">
         <v>58</v>
       </c>
       <c r="E424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F424" t="s">
         <v>59</v>
@@ -17409,13 +17385,13 @@
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C425" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D425" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E425">
         <v>2</v>
@@ -17456,22 +17432,22 @@
     </row>
     <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C426" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="D426" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F426" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G426" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I426" t="s">
         <v>27</v>
@@ -17503,22 +17479,22 @@
     </row>
     <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C427" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="D427" t="s">
         <v>24</v>
       </c>
       <c r="E427">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F427" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G427" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I427" t="s">
         <v>27</v>
@@ -17550,22 +17526,22 @@
     </row>
     <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C428" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D428" t="s">
         <v>24</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F428" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G428" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I428" t="s">
         <v>27</v>
@@ -17597,19 +17573,19 @@
     </row>
     <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C429" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D429" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E429">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F429" t="s">
-        <v>301</v>
+        <v>59</v>
       </c>
       <c r="G429" t="s">
         <v>60</v>
@@ -17644,80 +17620,104 @@
     </row>
     <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>30</v>
+        <v>653</v>
+      </c>
+      <c r="C430" t="s">
+        <v>654</v>
+      </c>
+      <c r="D430" t="s">
+        <v>24</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
       </c>
       <c r="F430" t="s">
-        <v>702</v>
+        <v>59</v>
+      </c>
+      <c r="G430" t="s">
+        <v>60</v>
       </c>
       <c r="I430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="J430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="K430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="L430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="M430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="N430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="O430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="P430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="Q430" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>31</v>
+        <v>656</v>
+      </c>
+      <c r="C431" t="s">
+        <v>657</v>
+      </c>
+      <c r="D431" t="s">
+        <v>58</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
       </c>
       <c r="F431" t="s">
-        <v>703</v>
+        <v>301</v>
+      </c>
+      <c r="G431" t="s">
+        <v>60</v>
       </c>
       <c r="I431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="J431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="K431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="L431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="M431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="N431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="O431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="P431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
       <c r="Q431" t="s">
-        <v>682</v>
+        <v>27</v>
       </c>
     </row>
     <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F432" t="s">
-        <v>180</v>
+        <v>702</v>
       </c>
       <c r="I432" t="s">
         <v>682</v>
@@ -17749,10 +17749,10 @@
     </row>
     <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F433" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="I433" t="s">
         <v>682</v>
@@ -17784,7 +17784,7 @@
     </row>
     <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F434" t="s">
         <v>180</v>
@@ -17819,10 +17819,10 @@
     </row>
     <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F435" t="s">
-        <v>313</v>
+        <v>700</v>
       </c>
       <c r="I435" t="s">
         <v>682</v>
@@ -17854,10 +17854,10 @@
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F436" t="s">
-        <v>684</v>
+        <v>180</v>
       </c>
       <c r="I436" t="s">
         <v>682</v>
@@ -17889,10 +17889,10 @@
     </row>
     <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F437" t="s">
-        <v>700</v>
+        <v>313</v>
       </c>
       <c r="I437" t="s">
         <v>682</v>
@@ -17924,10 +17924,10 @@
     </row>
     <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F438" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="I438" t="s">
         <v>682</v>
@@ -17959,10 +17959,10 @@
     </row>
     <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F439" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="I439" t="s">
         <v>682</v>
@@ -17994,10 +17994,10 @@
     </row>
     <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F440" t="s">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="I440" t="s">
         <v>682</v>
@@ -18029,10 +18029,10 @@
     </row>
     <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F441" t="s">
-        <v>313</v>
+        <v>706</v>
       </c>
       <c r="I441" t="s">
         <v>682</v>
@@ -18064,10 +18064,10 @@
     </row>
     <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F442" t="s">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="I442" t="s">
         <v>682</v>
@@ -18099,10 +18099,10 @@
     </row>
     <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F443" t="s">
-        <v>701</v>
+        <v>313</v>
       </c>
       <c r="I443" t="s">
         <v>682</v>
@@ -18134,10 +18134,10 @@
     </row>
     <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F444" t="s">
-        <v>684</v>
+        <v>320</v>
       </c>
       <c r="I444" t="s">
         <v>682</v>
@@ -18169,10 +18169,10 @@
     </row>
     <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F445" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I445" t="s">
         <v>682</v>
@@ -18204,10 +18204,10 @@
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F446" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="I446" t="s">
         <v>682</v>
@@ -18239,10 +18239,10 @@
     </row>
     <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F447" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="I447" t="s">
         <v>682</v>
@@ -18274,10 +18274,10 @@
     </row>
     <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F448" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="I448" t="s">
         <v>682</v>
@@ -18309,10 +18309,10 @@
     </row>
     <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F449" t="s">
-        <v>320</v>
+        <v>687</v>
       </c>
       <c r="I449" t="s">
         <v>682</v>
@@ -18344,10 +18344,10 @@
     </row>
     <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F450" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="I450" t="s">
         <v>682</v>
@@ -18379,10 +18379,10 @@
     </row>
     <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F451" t="s">
-        <v>684</v>
+        <v>320</v>
       </c>
       <c r="I451" t="s">
         <v>682</v>
@@ -18414,10 +18414,10 @@
     </row>
     <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F452" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="I452" t="s">
         <v>682</v>
@@ -18449,10 +18449,10 @@
     </row>
     <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F453" t="s">
-        <v>313</v>
+        <v>684</v>
       </c>
       <c r="I453" t="s">
         <v>682</v>
@@ -18484,10 +18484,10 @@
     </row>
     <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F454" t="s">
-        <v>320</v>
+        <v>684</v>
       </c>
       <c r="I454" t="s">
         <v>682</v>
@@ -18519,10 +18519,10 @@
     </row>
     <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F455" t="s">
-        <v>687</v>
+        <v>313</v>
       </c>
       <c r="I455" t="s">
         <v>682</v>
@@ -18554,10 +18554,10 @@
     </row>
     <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F456" t="s">
-        <v>708</v>
+        <v>320</v>
       </c>
       <c r="I456" t="s">
         <v>682</v>
@@ -18589,10 +18589,10 @@
     </row>
     <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F457" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="I457" t="s">
         <v>682</v>
@@ -18624,10 +18624,10 @@
     </row>
     <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F458" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="I458" t="s">
         <v>682</v>
@@ -18659,7 +18659,7 @@
     </row>
     <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F459" t="s">
         <v>684</v>
@@ -18694,10 +18694,10 @@
     </row>
     <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F460" t="s">
-        <v>67</v>
+        <v>684</v>
       </c>
       <c r="I460" t="s">
         <v>682</v>
@@ -18729,10 +18729,10 @@
     </row>
     <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F461" t="s">
-        <v>25</v>
+        <v>684</v>
       </c>
       <c r="I461" t="s">
         <v>682</v>
@@ -18764,10 +18764,10 @@
     </row>
     <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F462" t="s">
-        <v>708</v>
+        <v>67</v>
       </c>
       <c r="I462" t="s">
         <v>682</v>
@@ -18799,10 +18799,10 @@
     </row>
     <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F463" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="I463" t="s">
         <v>682</v>
@@ -18834,10 +18834,10 @@
     </row>
     <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F464" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="I464" t="s">
         <v>682</v>
@@ -18869,10 +18869,10 @@
     </row>
     <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F465" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="I465" t="s">
         <v>682</v>
@@ -18904,10 +18904,10 @@
     </row>
     <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F466" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="I466" t="s">
         <v>682</v>
@@ -18939,10 +18939,10 @@
     </row>
     <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F467" t="s">
-        <v>684</v>
+        <v>320</v>
       </c>
       <c r="I467" t="s">
         <v>682</v>
@@ -18974,10 +18974,10 @@
     </row>
     <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F468" t="s">
-        <v>313</v>
+        <v>708</v>
       </c>
       <c r="I468" t="s">
         <v>682</v>
@@ -19009,10 +19009,10 @@
     </row>
     <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F469" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I469" t="s">
         <v>682</v>
@@ -19044,10 +19044,10 @@
     </row>
     <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F470" t="s">
-        <v>701</v>
+        <v>313</v>
       </c>
       <c r="I470" t="s">
         <v>682</v>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F471" t="s">
-        <v>320</v>
+        <v>686</v>
       </c>
       <c r="I471" t="s">
         <v>682</v>
@@ -19114,10 +19114,10 @@
     </row>
     <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F472" t="s">
-        <v>320</v>
+        <v>701</v>
       </c>
       <c r="I472" t="s">
         <v>682</v>
@@ -19149,10 +19149,10 @@
     </row>
     <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F473" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="I473" t="s">
         <v>682</v>
@@ -19184,10 +19184,10 @@
     </row>
     <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F474" t="s">
-        <v>684</v>
+        <v>320</v>
       </c>
       <c r="I474" t="s">
         <v>682</v>
@@ -19219,10 +19219,10 @@
     </row>
     <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F475" t="s">
-        <v>713</v>
+        <v>25</v>
       </c>
       <c r="I475" t="s">
         <v>682</v>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F476" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="I476" t="s">
         <v>682</v>
@@ -19289,10 +19289,10 @@
     </row>
     <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F477" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="I477" t="s">
         <v>682</v>
@@ -19324,10 +19324,10 @@
     </row>
     <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F478" t="s">
-        <v>313</v>
+        <v>709</v>
       </c>
       <c r="I478" t="s">
         <v>682</v>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F479" t="s">
         <v>701</v>
@@ -19394,10 +19394,10 @@
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F480" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I480" t="s">
         <v>682</v>
@@ -19429,10 +19429,10 @@
     </row>
     <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F481" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="I481" t="s">
         <v>682</v>
@@ -19464,10 +19464,10 @@
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="F482" t="s">
-        <v>684</v>
+        <v>320</v>
       </c>
       <c r="I482" t="s">
         <v>682</v>
@@ -19499,10 +19499,10 @@
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="F483" t="s">
-        <v>320</v>
+        <v>687</v>
       </c>
       <c r="I483" t="s">
         <v>682</v>
@@ -19534,10 +19534,10 @@
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F484" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="I484" t="s">
         <v>682</v>
@@ -19569,10 +19569,10 @@
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F485" t="s">
-        <v>701</v>
+        <v>320</v>
       </c>
       <c r="I485" t="s">
         <v>682</v>
@@ -19604,10 +19604,10 @@
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="F486" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="I486" t="s">
         <v>682</v>
@@ -19639,10 +19639,10 @@
     </row>
     <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="F487" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="I487" t="s">
         <v>682</v>
@@ -19674,10 +19674,10 @@
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F488" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="I488" t="s">
         <v>682</v>
@@ -19709,10 +19709,10 @@
     </row>
     <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="F489" t="s">
-        <v>313</v>
+        <v>711</v>
       </c>
       <c r="I489" t="s">
         <v>682</v>
@@ -19744,10 +19744,10 @@
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F490" t="s">
-        <v>25</v>
+        <v>701</v>
       </c>
       <c r="I490" t="s">
         <v>682</v>
@@ -19779,10 +19779,10 @@
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F491" t="s">
-        <v>716</v>
+        <v>313</v>
       </c>
       <c r="I491" t="s">
         <v>682</v>
@@ -19814,10 +19814,10 @@
     </row>
     <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F492" t="s">
-        <v>692</v>
+        <v>25</v>
       </c>
       <c r="I492" t="s">
         <v>682</v>
@@ -19849,10 +19849,10 @@
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F493" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I493" t="s">
         <v>682</v>
@@ -19884,10 +19884,10 @@
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F494" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="I494" t="s">
         <v>682</v>
@@ -19919,10 +19919,10 @@
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F495" t="s">
-        <v>320</v>
+        <v>717</v>
       </c>
       <c r="I495" t="s">
         <v>682</v>
@@ -19954,10 +19954,10 @@
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F496" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="I496" t="s">
         <v>682</v>
@@ -19989,10 +19989,10 @@
     </row>
     <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F497" t="s">
-        <v>718</v>
+        <v>320</v>
       </c>
       <c r="I497" t="s">
         <v>682</v>
@@ -20024,10 +20024,10 @@
     </row>
     <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="F498" t="s">
-        <v>25</v>
+        <v>692</v>
       </c>
       <c r="I498" t="s">
         <v>682</v>
@@ -20059,10 +20059,10 @@
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F499" t="s">
-        <v>313</v>
+        <v>718</v>
       </c>
       <c r="I499" t="s">
         <v>682</v>
@@ -20094,10 +20094,10 @@
     </row>
     <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="F500" t="s">
-        <v>701</v>
+        <v>25</v>
       </c>
       <c r="I500" t="s">
         <v>682</v>
@@ -20129,10 +20129,10 @@
     </row>
     <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F501" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="I501" t="s">
         <v>682</v>
@@ -20164,10 +20164,10 @@
     </row>
     <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F502" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I502" t="s">
         <v>682</v>
@@ -20199,10 +20199,10 @@
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="F503" t="s">
-        <v>692</v>
+        <v>25</v>
       </c>
       <c r="I503" t="s">
         <v>682</v>
@@ -20234,10 +20234,10 @@
     </row>
     <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="F504" t="s">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="I504" t="s">
         <v>682</v>
@@ -20269,10 +20269,10 @@
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F505" t="s">
-        <v>25</v>
+        <v>692</v>
       </c>
       <c r="I505" t="s">
         <v>682</v>
@@ -20304,10 +20304,10 @@
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F506" t="s">
-        <v>684</v>
+        <v>25</v>
       </c>
       <c r="I506" t="s">
         <v>682</v>
@@ -20339,10 +20339,10 @@
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F507" t="s">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="I507" t="s">
         <v>682</v>
@@ -20374,10 +20374,10 @@
     </row>
     <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F508" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
       <c r="I508" t="s">
         <v>682</v>
@@ -20409,10 +20409,10 @@
     </row>
     <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="F509" t="s">
-        <v>687</v>
+        <v>320</v>
       </c>
       <c r="I509" t="s">
         <v>682</v>
@@ -20444,10 +20444,10 @@
     </row>
     <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="F510" t="s">
-        <v>313</v>
+        <v>719</v>
       </c>
       <c r="I510" t="s">
         <v>682</v>
@@ -20479,10 +20479,10 @@
     </row>
     <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="F511" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="I511" t="s">
         <v>682</v>
@@ -20514,10 +20514,10 @@
     </row>
     <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F512" t="s">
-        <v>700</v>
+        <v>313</v>
       </c>
       <c r="I512" t="s">
         <v>682</v>
@@ -20549,10 +20549,10 @@
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F513" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I513" t="s">
         <v>682</v>
@@ -20584,10 +20584,10 @@
     </row>
     <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="F514" t="s">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="I514" t="s">
         <v>682</v>
@@ -20619,10 +20619,10 @@
     </row>
     <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="F515" t="s">
-        <v>320</v>
+        <v>721</v>
       </c>
       <c r="I515" t="s">
         <v>682</v>
@@ -20654,10 +20654,10 @@
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F516" t="s">
-        <v>712</v>
+        <v>25</v>
       </c>
       <c r="I516" t="s">
         <v>682</v>
@@ -20689,10 +20689,10 @@
     </row>
     <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F517" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="I517" t="s">
         <v>682</v>
@@ -20724,10 +20724,10 @@
     </row>
     <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="F518" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="I518" t="s">
         <v>682</v>
@@ -20759,10 +20759,10 @@
     </row>
     <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F519" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="I519" t="s">
         <v>682</v>
@@ -20794,10 +20794,10 @@
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F520" t="s">
-        <v>320</v>
+        <v>684</v>
       </c>
       <c r="I520" t="s">
         <v>682</v>
@@ -20829,10 +20829,10 @@
     </row>
     <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F521" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="I521" t="s">
         <v>682</v>
@@ -20864,10 +20864,10 @@
     </row>
     <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="F522" t="s">
-        <v>684</v>
+        <v>320</v>
       </c>
       <c r="I522" t="s">
         <v>682</v>
@@ -20899,10 +20899,10 @@
     </row>
     <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="F523" t="s">
-        <v>701</v>
+        <v>25</v>
       </c>
       <c r="I523" t="s">
         <v>682</v>
@@ -20934,10 +20934,10 @@
     </row>
     <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F524" t="s">
-        <v>320</v>
+        <v>684</v>
       </c>
       <c r="I524" t="s">
         <v>682</v>
@@ -20969,10 +20969,10 @@
     </row>
     <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F525" t="s">
-        <v>67</v>
+        <v>701</v>
       </c>
       <c r="I525" t="s">
         <v>682</v>
@@ -21004,10 +21004,10 @@
     </row>
     <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F526" t="s">
-        <v>722</v>
+        <v>320</v>
       </c>
       <c r="I526" t="s">
         <v>682</v>
@@ -21039,10 +21039,10 @@
     </row>
     <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F527" t="s">
-        <v>723</v>
+        <v>67</v>
       </c>
       <c r="I527" t="s">
         <v>682</v>
@@ -21074,10 +21074,10 @@
     </row>
     <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F528" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I528" t="s">
         <v>682</v>
@@ -21109,10 +21109,10 @@
     </row>
     <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="F529" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="I529" t="s">
         <v>682</v>
@@ -21144,10 +21144,10 @@
     </row>
     <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F530" t="s">
-        <v>313</v>
+        <v>724</v>
       </c>
       <c r="I530" t="s">
         <v>682</v>
@@ -21179,10 +21179,10 @@
     </row>
     <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F531" t="s">
-        <v>320</v>
+        <v>688</v>
       </c>
       <c r="I531" t="s">
         <v>682</v>
@@ -21214,10 +21214,10 @@
     </row>
     <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="F532" t="s">
-        <v>689</v>
+        <v>313</v>
       </c>
       <c r="I532" t="s">
         <v>682</v>
@@ -21249,16 +21249,16 @@
     </row>
     <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>15</v>
+        <v>641</v>
       </c>
       <c r="F533" t="s">
-        <v>693</v>
+        <v>320</v>
       </c>
       <c r="I533" t="s">
         <v>682</v>
       </c>
       <c r="J533" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="K533" t="s">
         <v>682</v>
@@ -21284,16 +21284,16 @@
     </row>
     <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>43</v>
+        <v>664</v>
       </c>
       <c r="F534" t="s">
-        <v>59</v>
+        <v>689</v>
       </c>
       <c r="I534" t="s">
         <v>682</v>
       </c>
       <c r="J534" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="K534" t="s">
         <v>682</v>
@@ -21302,27 +21302,27 @@
         <v>682</v>
       </c>
       <c r="M534" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N534" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O534" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P534" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q534" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F535" t="s">
-        <v>55</v>
+        <v>693</v>
       </c>
       <c r="I535" t="s">
         <v>682</v>
@@ -21354,10 +21354,10 @@
     </row>
     <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F536" t="s">
-        <v>685</v>
+        <v>59</v>
       </c>
       <c r="I536" t="s">
         <v>682</v>
@@ -21372,27 +21372,27 @@
         <v>682</v>
       </c>
       <c r="M536" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N536" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O536" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P536" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q536" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F537" t="s">
-        <v>690</v>
+        <v>55</v>
       </c>
       <c r="I537" t="s">
         <v>682</v>
@@ -21407,27 +21407,27 @@
         <v>682</v>
       </c>
       <c r="M537" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N537" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O537" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P537" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q537" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F538" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I538" t="s">
         <v>682</v>
@@ -21442,27 +21442,27 @@
         <v>682</v>
       </c>
       <c r="M538" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N538" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O538" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P538" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q538" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F539" t="s">
-        <v>59</v>
+        <v>690</v>
       </c>
       <c r="I539" t="s">
         <v>682</v>
@@ -21494,10 +21494,10 @@
     </row>
     <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F540" t="s">
-        <v>55</v>
+        <v>691</v>
       </c>
       <c r="I540" t="s">
         <v>682</v>
@@ -21512,27 +21512,27 @@
         <v>682</v>
       </c>
       <c r="M540" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N540" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O540" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P540" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q540" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F541" t="s">
-        <v>685</v>
+        <v>59</v>
       </c>
       <c r="I541" t="s">
         <v>682</v>
@@ -21547,27 +21547,27 @@
         <v>682</v>
       </c>
       <c r="M541" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N541" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O541" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P541" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q541" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F542" t="s">
-        <v>694</v>
+        <v>55</v>
       </c>
       <c r="I542" t="s">
         <v>682</v>
@@ -21582,27 +21582,27 @@
         <v>682</v>
       </c>
       <c r="M542" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N542" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O542" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P542" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q542" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="F543" t="s">
-        <v>55</v>
+        <v>685</v>
       </c>
       <c r="I543" t="s">
         <v>682</v>
@@ -21634,10 +21634,10 @@
     </row>
     <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F544" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I544" t="s">
         <v>682</v>
@@ -21652,24 +21652,24 @@
         <v>682</v>
       </c>
       <c r="M544" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N544" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O544" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P544" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q544" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F545" t="s">
         <v>55</v>
@@ -21704,10 +21704,10 @@
     </row>
     <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F546" t="s">
-        <v>55</v>
+        <v>695</v>
       </c>
       <c r="I546" t="s">
         <v>682</v>
@@ -21739,7 +21739,7 @@
     </row>
     <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F547" t="s">
         <v>55</v>
@@ -21774,10 +21774,10 @@
     </row>
     <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="F548" t="s">
-        <v>707</v>
+        <v>55</v>
       </c>
       <c r="I548" t="s">
         <v>682</v>
@@ -21809,10 +21809,10 @@
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F549" t="s">
-        <v>705</v>
+        <v>55</v>
       </c>
       <c r="I549" t="s">
         <v>682</v>
@@ -21844,10 +21844,10 @@
     </row>
     <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F550" t="s">
-        <v>59</v>
+        <v>707</v>
       </c>
       <c r="I550" t="s">
         <v>682</v>
@@ -21862,27 +21862,27 @@
         <v>682</v>
       </c>
       <c r="M550" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N550" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O550" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P550" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q550" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F551" t="s">
-        <v>59</v>
+        <v>705</v>
       </c>
       <c r="I551" t="s">
         <v>682</v>
@@ -21897,27 +21897,27 @@
         <v>682</v>
       </c>
       <c r="M551" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N551" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O551" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P551" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q551" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F552" t="s">
-        <v>707</v>
+        <v>59</v>
       </c>
       <c r="I552" t="s">
         <v>682</v>
@@ -21932,27 +21932,27 @@
         <v>682</v>
       </c>
       <c r="M552" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N552" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O552" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P552" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q552" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="F553" t="s">
-        <v>714</v>
+        <v>59</v>
       </c>
       <c r="I553" t="s">
         <v>682</v>
@@ -21984,10 +21984,10 @@
     </row>
     <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F554" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="I554" t="s">
         <v>682</v>
@@ -22002,27 +22002,27 @@
         <v>682</v>
       </c>
       <c r="M554" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N554" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O554" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P554" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q554" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="F555" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="I555" t="s">
         <v>682</v>
@@ -22037,27 +22037,27 @@
         <v>682</v>
       </c>
       <c r="M555" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N555" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O555" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P555" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q555" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="F556" t="s">
-        <v>59</v>
+        <v>694</v>
       </c>
       <c r="I556" t="s">
         <v>682</v>
@@ -22089,10 +22089,10 @@
     </row>
     <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="F557" t="s">
-        <v>59</v>
+        <v>697</v>
       </c>
       <c r="I557" t="s">
         <v>682</v>
@@ -22107,24 +22107,24 @@
         <v>682</v>
       </c>
       <c r="M557" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N557" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O557" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P557" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q557" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F558" t="s">
         <v>59</v>
@@ -22159,7 +22159,7 @@
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="F559" t="s">
         <v>59</v>
@@ -22194,10 +22194,10 @@
     </row>
     <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="F560" t="s">
-        <v>699</v>
+        <v>59</v>
       </c>
       <c r="I560" t="s">
         <v>682</v>
@@ -22229,10 +22229,10 @@
     </row>
     <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="F561" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I561" t="s">
         <v>682</v>
@@ -22247,27 +22247,27 @@
         <v>682</v>
       </c>
       <c r="M561" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N561" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O561" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P561" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q561" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="F562" t="s">
-        <v>59</v>
+        <v>699</v>
       </c>
       <c r="I562" t="s">
         <v>682</v>
@@ -22299,10 +22299,10 @@
     </row>
     <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="F563" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I563" t="s">
         <v>682</v>
@@ -22317,27 +22317,27 @@
         <v>682</v>
       </c>
       <c r="M563" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N563" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O563" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P563" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q563" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="F564" t="s">
-        <v>699</v>
+        <v>59</v>
       </c>
       <c r="I564" t="s">
         <v>682</v>
@@ -22369,10 +22369,10 @@
     </row>
     <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F565" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I565" t="s">
         <v>682</v>
@@ -22387,27 +22387,27 @@
         <v>682</v>
       </c>
       <c r="M565" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N565" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O565" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P565" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q565" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="F566" t="s">
-        <v>55</v>
+        <v>699</v>
       </c>
       <c r="I566" t="s">
         <v>682</v>
@@ -22422,27 +22422,27 @@
         <v>682</v>
       </c>
       <c r="M566" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N566" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O566" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P566" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q566" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="F567" t="s">
-        <v>699</v>
+        <v>55</v>
       </c>
       <c r="I567" t="s">
         <v>682</v>
@@ -22457,24 +22457,24 @@
         <v>682</v>
       </c>
       <c r="M567" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N567" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O567" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P567" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q567" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="F568" t="s">
         <v>55</v>
@@ -22509,10 +22509,10 @@
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="F569" t="s">
-        <v>59</v>
+        <v>699</v>
       </c>
       <c r="I569" t="s">
         <v>682</v>
@@ -22544,10 +22544,10 @@
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="F570" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I570" t="s">
         <v>682</v>
@@ -22562,24 +22562,24 @@
         <v>682</v>
       </c>
       <c r="M570" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N570" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O570" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P570" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q570" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F571" t="s">
         <v>59</v>
@@ -22614,7 +22614,7 @@
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F572" t="s">
         <v>59</v>
@@ -22649,7 +22649,7 @@
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="F573" t="s">
         <v>59</v>
@@ -22684,10 +22684,10 @@
     </row>
     <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="F574" t="s">
-        <v>685</v>
+        <v>59</v>
       </c>
       <c r="I574" t="s">
         <v>682</v>
@@ -22702,27 +22702,27 @@
         <v>682</v>
       </c>
       <c r="M574" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N574" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O574" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P574" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q574" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="F575" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I575" t="s">
         <v>682</v>
@@ -22737,27 +22737,27 @@
         <v>682</v>
       </c>
       <c r="M575" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N575" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O575" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P575" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q575" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="F576" t="s">
-        <v>55</v>
+        <v>685</v>
       </c>
       <c r="I576" t="s">
         <v>682</v>
@@ -22789,10 +22789,10 @@
     </row>
     <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="F577" t="s">
-        <v>668</v>
+        <v>55</v>
       </c>
       <c r="I577" t="s">
         <v>682</v>
@@ -22807,27 +22807,27 @@
         <v>682</v>
       </c>
       <c r="M577" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N577" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O577" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P577" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q577" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="F578" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I578" t="s">
         <v>682</v>
@@ -22842,27 +22842,27 @@
         <v>682</v>
       </c>
       <c r="M578" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="N578" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="O578" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="P578" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="Q578" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
     </row>
     <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="F579" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="I579" t="s">
         <v>682</v>
@@ -22894,118 +22894,112 @@
     </row>
     <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>626</v>
+      </c>
+      <c r="F580" t="s">
+        <v>59</v>
+      </c>
+      <c r="I580" t="s">
+        <v>682</v>
+      </c>
+      <c r="J580" t="s">
+        <v>16</v>
+      </c>
+      <c r="K580" t="s">
+        <v>682</v>
+      </c>
+      <c r="L580" t="s">
+        <v>682</v>
+      </c>
+      <c r="M580" t="s">
+        <v>16</v>
+      </c>
+      <c r="N580" t="s">
+        <v>16</v>
+      </c>
+      <c r="O580" t="s">
+        <v>16</v>
+      </c>
+      <c r="P580" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q580" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>639</v>
+      </c>
+      <c r="F581" t="s">
+        <v>699</v>
+      </c>
+      <c r="I581" t="s">
+        <v>682</v>
+      </c>
+      <c r="J581" t="s">
+        <v>16</v>
+      </c>
+      <c r="K581" t="s">
+        <v>682</v>
+      </c>
+      <c r="L581" t="s">
+        <v>682</v>
+      </c>
+      <c r="M581" t="s">
+        <v>16</v>
+      </c>
+      <c r="N581" t="s">
+        <v>16</v>
+      </c>
+      <c r="O581" t="s">
+        <v>16</v>
+      </c>
+      <c r="P581" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q581" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
         <v>662</v>
       </c>
-      <c r="F580" t="s">
+      <c r="F582" t="s">
         <v>725</v>
       </c>
-      <c r="I580" t="s">
-        <v>682</v>
-      </c>
-      <c r="J580" t="s">
-        <v>16</v>
-      </c>
-      <c r="K580" t="s">
-        <v>682</v>
-      </c>
-      <c r="L580" t="s">
-        <v>682</v>
-      </c>
-      <c r="M580" t="s">
-        <v>682</v>
-      </c>
-      <c r="N580" t="s">
-        <v>682</v>
-      </c>
-      <c r="O580" t="s">
-        <v>682</v>
-      </c>
-      <c r="P580" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q580" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="581" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B581" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F581" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I581" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J581" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K581" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L581" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="M581" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N581" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O581" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P581" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q581" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="582" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B582" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F582" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I582" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J582" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K582" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L582" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="M582" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N582" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O582" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P582" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q582" s="2" t="s">
-        <v>16</v>
+      <c r="I582" t="s">
+        <v>682</v>
+      </c>
+      <c r="J582" t="s">
+        <v>16</v>
+      </c>
+      <c r="K582" t="s">
+        <v>682</v>
+      </c>
+      <c r="L582" t="s">
+        <v>682</v>
+      </c>
+      <c r="M582" t="s">
+        <v>682</v>
+      </c>
+      <c r="N582" t="s">
+        <v>682</v>
+      </c>
+      <c r="O582" t="s">
+        <v>682</v>
+      </c>
+      <c r="P582" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q582" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="583" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>765</v>
@@ -23043,13 +23037,13 @@
     </row>
     <row r="584" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>765</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>696</v>
+        <v>301</v>
       </c>
       <c r="I584" s="2" t="s">
         <v>682</v>
@@ -23081,7 +23075,7 @@
     </row>
     <row r="585" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>765</v>
@@ -23119,13 +23113,13 @@
     </row>
     <row r="586" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>765</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>301</v>
+        <v>696</v>
       </c>
       <c r="I586" s="2" t="s">
         <v>682</v>
@@ -23157,7 +23151,7 @@
     </row>
     <row r="587" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>765</v>
@@ -23195,7 +23189,7 @@
     </row>
     <row r="588" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>765</v>
@@ -23233,7 +23227,7 @@
     </row>
     <row r="589" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>765</v>
@@ -23271,7 +23265,7 @@
     </row>
     <row r="590" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>483</v>
+        <v>370</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>765</v>
@@ -23309,7 +23303,7 @@
     </row>
     <row r="591" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>650</v>
+        <v>383</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>765</v>
@@ -23347,13 +23341,13 @@
     </row>
     <row r="592" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>47</v>
+        <v>483</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>765</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>685</v>
+        <v>301</v>
       </c>
       <c r="I592" s="2" t="s">
         <v>682</v>
@@ -23362,33 +23356,33 @@
         <v>16</v>
       </c>
       <c r="K592" s="2" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="L592" s="2" t="s">
         <v>682</v>
       </c>
       <c r="M592" s="2" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="N592" s="2" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="O592" s="2" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="P592" s="2" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q592" s="2" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F593" s="2" t="s">
         <v>301</v>
@@ -23423,326 +23417,326 @@
     </row>
     <row r="594" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I594" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J594" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K594" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="L594" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="M594" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="N594" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="O594" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="P594" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q594" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="595" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I595" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J595" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K595" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L595" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="M595" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N595" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O595" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P595" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q595" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="596" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B596" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="F594" s="2" t="s">
+      <c r="F596" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I594" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J594" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K594" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L594" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="M594" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N594" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O594" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P594" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q594" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>728</v>
-      </c>
-      <c r="B595" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="F595" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="I595" t="s">
-        <v>682</v>
-      </c>
-      <c r="J595" t="s">
-        <v>682</v>
-      </c>
-      <c r="K595" t="s">
-        <v>682</v>
-      </c>
-      <c r="L595" t="s">
-        <v>682</v>
-      </c>
-      <c r="M595" t="s">
-        <v>682</v>
-      </c>
-      <c r="N595" t="s">
-        <v>682</v>
-      </c>
-      <c r="O595" t="s">
-        <v>682</v>
-      </c>
-      <c r="P595" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q595" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>748</v>
-      </c>
-      <c r="B596" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="F596" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="I596" t="s">
-        <v>682</v>
-      </c>
-      <c r="J596" t="s">
-        <v>682</v>
-      </c>
-      <c r="K596" t="s">
-        <v>682</v>
-      </c>
-      <c r="L596" t="s">
-        <v>682</v>
-      </c>
-      <c r="M596" t="s">
-        <v>682</v>
-      </c>
-      <c r="N596" t="s">
-        <v>682</v>
-      </c>
-      <c r="O596" t="s">
-        <v>682</v>
-      </c>
-      <c r="P596" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q596" t="s">
-        <v>682</v>
+      <c r="I596" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J596" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K596" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L596" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="M596" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N596" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O596" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P596" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q596" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>440</v>
-      </c>
-      <c r="B597" t="s">
-        <v>770</v>
+        <v>728</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I597" t="s">
-        <v>681</v>
-      </c>
-      <c r="J597" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="K597" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="L597" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M597" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="N597" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="O597" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P597" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q597" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="J597" t="s">
+        <v>682</v>
+      </c>
+      <c r="K597" t="s">
+        <v>682</v>
+      </c>
+      <c r="L597" t="s">
+        <v>682</v>
+      </c>
+      <c r="M597" t="s">
+        <v>682</v>
+      </c>
+      <c r="N597" t="s">
+        <v>682</v>
+      </c>
+      <c r="O597" t="s">
+        <v>682</v>
+      </c>
+      <c r="P597" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q597" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>315</v>
-      </c>
-      <c r="B598" t="s">
-        <v>770</v>
+        <v>748</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I598" t="s">
-        <v>683</v>
-      </c>
-      <c r="J598" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="K598" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L598" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="M598" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="N598" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="O598" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="P598" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q598" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
+      </c>
+      <c r="J598" t="s">
+        <v>682</v>
+      </c>
+      <c r="K598" t="s">
+        <v>682</v>
+      </c>
+      <c r="L598" t="s">
+        <v>682</v>
+      </c>
+      <c r="M598" t="s">
+        <v>682</v>
+      </c>
+      <c r="N598" t="s">
+        <v>682</v>
+      </c>
+      <c r="O598" t="s">
+        <v>682</v>
+      </c>
+      <c r="P598" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q598" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
       <c r="B599" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="I599" t="s">
         <v>681</v>
       </c>
-      <c r="J599" t="s">
-        <v>681</v>
-      </c>
-      <c r="K599" t="s">
-        <v>681</v>
-      </c>
-      <c r="L599" t="s">
-        <v>681</v>
-      </c>
-      <c r="M599" t="s">
-        <v>681</v>
-      </c>
-      <c r="N599" t="s">
-        <v>681</v>
-      </c>
-      <c r="O599" t="s">
-        <v>681</v>
-      </c>
-      <c r="P599" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q599" t="s">
+      <c r="J599" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="N599" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="O599" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q599" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="B600" t="s">
         <v>770</v>
       </c>
       <c r="F600" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I600" t="s">
+        <v>683</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="N600" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q600" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>567</v>
+      </c>
+      <c r="B601" t="s">
+        <v>773</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="I601" t="s">
+        <v>681</v>
+      </c>
+      <c r="J601" t="s">
+        <v>681</v>
+      </c>
+      <c r="K601" t="s">
+        <v>681</v>
+      </c>
+      <c r="L601" t="s">
+        <v>681</v>
+      </c>
+      <c r="M601" t="s">
+        <v>681</v>
+      </c>
+      <c r="N601" t="s">
+        <v>681</v>
+      </c>
+      <c r="O601" t="s">
+        <v>681</v>
+      </c>
+      <c r="P601" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q601" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>8</v>
+      </c>
+      <c r="B602" t="s">
+        <v>770</v>
+      </c>
+      <c r="F602" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="I600" t="s">
-        <v>682</v>
-      </c>
-      <c r="J600" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="K600" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="L600" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="M600" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="N600" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="O600" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="P600" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q600" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="601" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B601" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="F601" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="I601" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J601" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="K601" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L601" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="M601" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="N601" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="O601" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="P601" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q601" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="602" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B602" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="F602" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="I602" s="2" t="s">
+      <c r="I602" t="s">
         <v>682</v>
       </c>
       <c r="J602" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="K602" s="2" t="s">
-        <v>16</v>
+      <c r="K602" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="L602" s="1" t="s">
         <v>682</v>
@@ -23765,10 +23759,10 @@
     </row>
     <row r="603" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>405</v>
+        <v>40</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>704</v>
@@ -23803,10 +23797,10 @@
     </row>
     <row r="604" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>704</v>
@@ -23841,10 +23835,10 @@
     </row>
     <row r="605" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>634</v>
+        <v>405</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>704</v>
@@ -23879,80 +23873,157 @@
     </row>
     <row r="606" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="I606" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K606" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="N606" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="O606" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q606" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="607" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="I607" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K607" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="N607" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="O607" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q607" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="608" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="B608" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="I606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P606" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q606" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+      <c r="I608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q608" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
         <v>726</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B609" t="s">
         <v>768</v>
       </c>
-      <c r="F607" s="1" t="s">
+      <c r="F609" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="I607" t="s">
-        <v>681</v>
-      </c>
-      <c r="J607" t="s">
-        <v>681</v>
-      </c>
-      <c r="K607" t="s">
-        <v>681</v>
-      </c>
-      <c r="L607" t="s">
-        <v>681</v>
-      </c>
-      <c r="M607" t="s">
-        <v>681</v>
-      </c>
-      <c r="N607" t="s">
-        <v>681</v>
-      </c>
-      <c r="O607" t="s">
-        <v>681</v>
-      </c>
-      <c r="P607" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q607" t="s">
+      <c r="I609" t="s">
+        <v>681</v>
+      </c>
+      <c r="J609" t="s">
+        <v>681</v>
+      </c>
+      <c r="K609" t="s">
+        <v>681</v>
+      </c>
+      <c r="L609" t="s">
+        <v>681</v>
+      </c>
+      <c r="M609" t="s">
+        <v>681</v>
+      </c>
+      <c r="N609" t="s">
+        <v>681</v>
+      </c>
+      <c r="O609" t="s">
+        <v>681</v>
+      </c>
+      <c r="P609" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q609" t="s">
         <v>681</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L550">
-    <sortCondition ref="D1:D550"/>
+  <autoFilter ref="A1:R609" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L552">
+    <sortCondition ref="D1:D552"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
